--- a/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="8430"/>
+    <workbookView windowWidth="11520" windowHeight="2055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:U1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>用户姓名</t>
   </si>
@@ -71,12 +72,6 @@
   </si>
   <si>
     <t>姓名首字母全拼</t>
-  </si>
-  <si>
-    <t>是否启用</t>
-  </si>
-  <si>
-    <t>创建日期</t>
   </si>
 </sst>
 </file>
@@ -84,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -105,12 +100,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,6 +144,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -126,60 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,32 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,30 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +271,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,6 +331,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,115 +361,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +456,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,61 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,153 +515,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,15 +1028,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T$1:T$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:21">
+    <row r="1" ht="14.25" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,12 +1093,6 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="2055"/>
+    <workbookView windowWidth="20385" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:U1"/>
+  <oleSize ref="N1:AH1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>用户姓名</t>
   </si>
@@ -26,6 +26,9 @@
     <t>性别</t>
   </si>
   <si>
+    <t>所属机构名称</t>
+  </si>
+  <si>
     <t>机构编码</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
     <t>登录名</t>
   </si>
   <si>
-    <t>登录全名</t>
-  </si>
-  <si>
     <t>账号密码</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>姓名首字母全拼</t>
+  </si>
+  <si>
+    <t>身份证号</t>
   </si>
 </sst>
 </file>
@@ -79,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -100,16 +103,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,95 +223,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -234,17 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,15 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,15 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +492,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -518,11 +518,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,21 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,142 +579,145 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1028,71 +1034,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T$1:T$1048576"/>
+      <selection activeCell="P1" sqref="P$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="35.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="27.375" customWidth="1"/>
+    <col min="19" max="19" width="18.375" customWidth="1"/>
+    <col min="20" max="20" width="25.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8100"/>
+    <workbookView windowWidth="19770" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="K1:AE1"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="C1:W1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>用户姓名</t>
   </si>
@@ -29,7 +29,7 @@
     <t>所属机构名称</t>
   </si>
   <si>
-    <t>机构编码</t>
+    <t>机构编码(文本)</t>
   </si>
   <si>
     <t>用户职务</t>
@@ -74,10 +74,13 @@
     <t>甘肃省</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>程序员</t>
   </si>
   <si>
-    <t>010-XXXXXXX或者0931-XXXXXXX</t>
+    <t>0931-8558461</t>
   </si>
   <si>
     <t>甘肃省兰州市城关区雁滩高新开发区电信二枢纽A座201室</t>
@@ -86,13 +89,10 @@
     <t>gsww@qq.com</t>
   </si>
   <si>
-    <t>admin01</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>62230119930620XXXX</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>622301199306206584</t>
   </si>
   <si>
     <t>模板数据2</t>
@@ -101,16 +101,19 @@
     <t>女</t>
   </si>
   <si>
+    <t>0931-8553624</t>
+  </si>
+  <si>
     <t>甘肃省兰州市城关区雁滩高新开发区</t>
   </si>
   <si>
     <t>1012034624@168.com</t>
   </si>
   <si>
-    <t>admin02</t>
-  </si>
-  <si>
-    <t>62230120170620XXXX</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>622301199307213654</t>
   </si>
 </sst>
 </file>
@@ -118,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,59 +143,86 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -215,36 +253,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -254,6 +262,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -268,22 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,19 +307,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,49 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,91 +457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +498,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,17 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +545,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,165 +603,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1081,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1091,7 +1100,7 @@
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -1106,49 +1115,49 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1168,20 +1177,20 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>128</v>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>13863546357</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>730000</v>
@@ -1189,19 +1198,19 @@
       <c r="K2" s="1">
         <v>1234567</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M2" s="1">
         <v>1234567890</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1">
+        <v>111111</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1218,20 +1227,20 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>128</v>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H3" s="1">
         <v>13863546357</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1">
         <v>730000</v>
@@ -1239,20 +1248,20 @@
       <c r="K3" s="1">
         <v>1234567</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="M3" s="1">
         <v>1012034624</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="O3" s="1">
+        <v>111111</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
@@ -10,8 +10,369 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="C1:W1"/>
+  <oleSize ref="H1:AB1"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字，且必须是唯一的
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填项，文本格式的数字
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,16 +390,16 @@
     <t>所属机构名称</t>
   </si>
   <si>
-    <t>机构编码(文本)</t>
+    <t>机构编码</t>
   </si>
   <si>
     <t>用户职务</t>
   </si>
   <si>
-    <t>办公电话(文本)</t>
-  </si>
-  <si>
-    <t>移动电话(文本)</t>
+    <t>办公电话</t>
+  </si>
+  <si>
+    <t>移动电话</t>
   </si>
   <si>
     <t>地址</t>
@@ -53,16 +414,16 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>QQ号(文本)</t>
-  </si>
-  <si>
-    <t>登录名(唯一性)</t>
-  </si>
-  <si>
-    <t>账号密码(文本)</t>
-  </si>
-  <si>
-    <t>身份证号(文本)</t>
+    <t>QQ号</t>
+  </si>
+  <si>
+    <t>登录名</t>
+  </si>
+  <si>
+    <t>账号密码</t>
+  </si>
+  <si>
+    <t>身份证号</t>
   </si>
   <si>
     <t>模板数据1</t>
@@ -121,10 +482,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,12 +511,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -163,66 +561,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +592,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -244,33 +615,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +668,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,7 +734,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,85 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,55 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +859,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,24 +906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,148 +964,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,8 +1451,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1100,9 +1461,9 @@
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="53.375" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
@@ -1266,10 +1627,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="gsww@qq.com"/>
-    <hyperlink ref="L3" r:id="rId2" display="1012034624@168.com" tooltip="mailto:1012034624@168.com"/>
+    <hyperlink ref="L2" r:id="rId3" display="gsww@qq.com"/>
+    <hyperlink ref="L3" r:id="rId4" display="1012034624@168.com" tooltip="mailto:1012034624@168.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/userList.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="H1:AB1"/>
+  <oleSize ref="K1:AE1"/>
 </workbook>
 </file>
 
@@ -366,7 +366,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-必填项，文本格式的数字
+必填项，文本格式的数字或字母
 </t>
         </r>
       </text>
@@ -453,7 +453,7 @@
     <t>test1</t>
   </si>
   <si>
-    <t>622301199306206584</t>
+    <t>62230119930620658X</t>
   </si>
   <si>
     <t>模板数据2</t>
@@ -483,9 +483,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -511,9 +511,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,50 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -577,61 +621,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,49 +668,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,121 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,20 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,17 +892,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,148 +964,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,8 +1451,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
